--- a/uploads/ImportBasic.xlsx
+++ b/uploads/ImportBasic.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dex\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dex Honsa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21645" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19418" windowHeight="5768"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="168">
   <si>
     <t xml:space="preserve">SAMPLE CLOSING CHECKLIST-HOUSING/COMMERCIAL ACQUISITION CLOSING CHECK LIST
 </t>
@@ -61,9 +61,6 @@
     <t>Internal Notes (nor for display on CB Website just for reference)</t>
   </si>
   <si>
-    <t>Salent Data</t>
-  </si>
-  <si>
     <t xml:space="preserve">Property Address: </t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>Seller</t>
   </si>
   <si>
-    <t>www.mcdonalds.com</t>
-  </si>
-  <si>
     <t>Transaction Documentation</t>
   </si>
   <si>
@@ -115,18 +109,12 @@
     <t>Form of Estoppel</t>
   </si>
   <si>
-    <t>Inventory of Personal Property</t>
-  </si>
-  <si>
     <t>Escrow</t>
   </si>
   <si>
     <t>Title Company</t>
   </si>
   <si>
-    <t>Title Magic</t>
-  </si>
-  <si>
     <t>Title Agenty</t>
   </si>
   <si>
@@ -421,9 +409,6 @@
     <t>Next Annual Report Due</t>
   </si>
   <si>
-    <t>John Smith, Esq.</t>
-  </si>
-  <si>
     <t>Registered Agent</t>
   </si>
   <si>
@@ -439,9 +424,6 @@
     <t xml:space="preserve">Taxes </t>
   </si>
   <si>
-    <t>Assessors Parcel Number</t>
-  </si>
-  <si>
     <t xml:space="preserve">Most Recent Taxes </t>
   </si>
   <si>
@@ -463,9 +445,6 @@
     <t>Parking Spaces Actual</t>
   </si>
   <si>
-    <t>CoreLogic Market Data</t>
-  </si>
-  <si>
     <t>Ray Donovan, LLC</t>
   </si>
   <si>
@@ -484,34 +463,92 @@
     <t>Lifts &amp; Downs, LLC</t>
   </si>
   <si>
-    <t>Bad Stuff, LLC</t>
-  </si>
-  <si>
     <t>Roof Condition</t>
   </si>
   <si>
     <t>Liens</t>
   </si>
   <si>
-    <t>Purchase Agreemet</t>
-  </si>
-  <si>
     <t>www.snoopy.com</t>
   </si>
   <si>
-    <t>file:///C:/Users/Jason1/Downloads/As_Is_Residential_Contract_for_Sale_and_Purchase.pdf</t>
+    <t>www.google.com/maps/place/E+25,+6135+NW+167th+St,+Hialeah,+FL+33015/@25.9256539,-80.3041253,17z/data=!3m1!4b1!4m5!3m4!1s0x88d9a53e54f0c72d:0xc2b80eec0935011e!8m2!3d25.9256539!4d-80.3019366</t>
+  </si>
+  <si>
+    <t>search.sunbiz.org/Inquiry/CorporationSearch/SearchResultDetail?inquirytype=EntityName&amp;directionType=Initial&amp;searchNameOrder=REALESTATE1934%20L140001073530&amp;aggregateId=flal-l14000107353-10227a0d-0810-4347-a828-ba811df51ea1&amp;searchTerm=Real%20Estate%201934%2C%20LLC&amp;listNameOrder=REALESTATE1934%20L140001073530</t>
+  </si>
+  <si>
+    <t>Starchevich Blanco, Luis E</t>
+  </si>
+  <si>
+    <t>47-1315100</t>
+  </si>
+  <si>
+    <t>www.floridarealtors.org/LegalCenter/HotTopics/upload/FloridaRealtors-FloridaBar-4x_WEB-VERSION.pdf</t>
+  </si>
+  <si>
+    <t>www.corelogic.com/products/marketrac.aspx</t>
+  </si>
+  <si>
+    <t>CoreLogic Marketrac</t>
+  </si>
+  <si>
+    <t>www.ncscommercial.com/library/documents/Rent%20Roll.pdf</t>
+  </si>
+  <si>
+    <t>Run Title</t>
+  </si>
+  <si>
+    <t>www.runtitle.com</t>
+  </si>
+  <si>
+    <t>Salient Data</t>
+  </si>
+  <si>
+    <t>Personal Property Value</t>
+  </si>
+  <si>
+    <t>www.dropbox.com/s/5zayixspwm4lj8e/Sample%20Personal%20Property.pdf?dl=0</t>
+  </si>
+  <si>
+    <t>www.miamiandbeaches.com/business-service/key-biscayne-chamber-of-commerce-and-visitors-center/100975</t>
+  </si>
+  <si>
+    <t>Please see attached List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three year average 92% </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Three year Reports</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>No later than  4/2/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top Tenants </t>
+  </si>
+  <si>
+    <t>UBS, Hartford, JPM Bank</t>
+  </si>
+  <si>
+    <t>www.rayshousecleaning.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +613,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -600,11 +653,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -643,16 +699,12 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -661,19 +713,31 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -986,25 +1050,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="212" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1080,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1038,733 +1102,797 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="16" t="s">
-        <v>154</v>
+      <c r="F4" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="16" t="s">
-        <v>17</v>
+      <c r="F8" t="s">
+        <v>147</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7">
-        <v>42736</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="12">
+        <v>42826</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="D10" s="7">
         <v>43070</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43018</v>
+      </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="12">
         <v>43160</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G12" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+        <v>157</v>
+      </c>
+      <c r="D20" s="28">
+        <v>22516</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="15" t="s">
+        <v>158</v>
+      </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="27">
+        <v>22570.002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.45">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1895000</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.45">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="26">
-        <v>2000000</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>24</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>25</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="21">
-        <v>1895000</v>
+      <c r="D27" s="20">
+        <v>50000</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="22">
-        <v>50000</v>
-      </c>
-      <c r="E28" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="D29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="11"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.45">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.45">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="25" t="s">
+        <v>161</v>
+      </c>
       <c r="E32" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="24">
-        <v>0.92</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="6">
+        <v>7</v>
+      </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="6">
-        <v>4</v>
+        <v>165</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="D38" s="21">
+        <v>2000000</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>36</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="23">
-        <v>2000000</v>
+        <v>134</v>
+      </c>
+      <c r="D39" s="21">
+        <v>8000</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>36</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>133</v>
+      <c r="B40" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="23">
-        <v>8000</v>
+        <v>46</v>
+      </c>
+      <c r="D40" s="11">
+        <v>3</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>36</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="11">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="D42" s="22">
+        <v>43070</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="25">
+      <c r="D43" s="22">
         <v>43070</v>
       </c>
       <c r="E43" s="6"/>
@@ -1772,311 +1900,329 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="25">
-        <v>43070</v>
+        <v>51</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="F44" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="D47" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>144</v>
+        <v>66</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
-        <v>48</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>71</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E54" s="11"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="D56" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>75</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E56" s="11"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
-        <v>51</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="E57" s="11"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="D59" s="11">
+        <v>4</v>
+      </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
         <v>53</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="D60" s="11">
         <v>4</v>
@@ -2086,427 +2232,440 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D61" s="11">
-        <v>4</v>
+      <c r="D61" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="D62" s="12">
+        <v>43191</v>
+      </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="F62" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="12">
-        <v>43191</v>
+      <c r="D63" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="D64" s="16">
+        <v>38838</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A65" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="19">
+        <v>1500000</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.45">
+      <c r="A66" s="6">
+        <v>60</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" s="17">
-        <v>38838</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>59</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="18">
-        <v>1500000</v>
-      </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="16" t="s">
-        <v>153</v>
-      </c>
+      <c r="F66" s="15"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A67" s="6">
         <v>60</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E67" s="8"/>
-      <c r="F67" s="16"/>
+      <c r="F67" s="8"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A68" s="6">
         <v>60</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="D68" s="16">
+        <v>42559</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A69" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" s="17">
-        <v>42559</v>
+        <v>101</v>
+      </c>
+      <c r="D69" s="19">
+        <v>1895000</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A70" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D70" s="27">
-        <v>1895000</v>
+        <v>102</v>
+      </c>
+      <c r="D70" s="17">
+        <v>0.55700000000000005</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A71" s="6">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" s="24">
-        <v>0.55000000000000004</v>
+        <v>103</v>
+      </c>
+      <c r="D71" s="19">
+        <v>909068</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A72" s="6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" s="27">
-        <v>909068</v>
+        <v>105</v>
+      </c>
+      <c r="D72" s="19">
+        <v>1052388</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A73" s="6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" s="27">
-        <v>1052388</v>
+        <v>106</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="6">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="D74" s="26">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.45">
+      <c r="A75" s="6">
+        <v>67</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" t="s">
         <v>110</v>
       </c>
-      <c r="D74" s="8" t="s">
+    </row>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.45">
+      <c r="A76" s="6">
+        <v>68</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.45">
+      <c r="A77" s="6">
+        <v>69</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.45">
+      <c r="A78" s="6">
+        <v>70</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="18">
+        <v>42780</v>
+      </c>
+      <c r="F78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.45">
+      <c r="A79" s="6">
+        <v>71</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" t="s">
         <v>111</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
-        <v>66</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D75" s="19">
-        <v>6028</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
-        <v>67</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="F79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.45">
+      <c r="A80" s="6">
+        <v>72</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <v>68</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
-        <v>69</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="11" t="s">
+      <c r="D80" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="A81" s="6">
+        <v>73</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
-        <v>70</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="D81" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="20">
+      <c r="F81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="A82" s="6">
+        <v>74</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" t="s">
+        <v>123</v>
+      </c>
+      <c r="F82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="A83" s="6">
+        <v>75</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" s="18">
+        <v>43221</v>
+      </c>
+      <c r="F83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="A84" s="6">
+        <v>76</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.45">
+      <c r="A85" s="6">
+        <v>77</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="6">
+        <v>78</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" s="18">
         <v>42780</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
-        <v>71</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
-        <v>72</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
-        <v>73</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D82" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
-        <v>74</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D83" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
-        <v>75</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D84" s="20">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
-        <v>76</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <v>77</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D86" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
-        <v>78</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D87" s="20">
-        <v>42780</v>
-      </c>
-      <c r="F87" s="16"/>
+      <c r="F86" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2522,26 +2681,26 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/ImportBasic.xlsx
+++ b/uploads/ImportBasic.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28203"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erbfamily/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23680" yWindow="480" windowWidth="22780" windowHeight="26640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21645" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="61">
-  <si>
-    <t>CB ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="63">
   <si>
     <t>Major Category</t>
   </si>
@@ -88,9 +85,6 @@
     <t>Floating Point Investor Report</t>
   </si>
   <si>
-    <t>https://img.bulawayo24.com/articles/Bitcoin.jpg</t>
-  </si>
-  <si>
     <t>RippleSideBinance</t>
   </si>
   <si>
@@ -218,12 +212,24 @@
   </si>
   <si>
     <t>www.dash.org</t>
+  </si>
+  <si>
+    <t>https://cdn.images.dailystar.co.uk/dynamic/122/photos/394000/900x738/780394.jpg</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Coins</t>
+  </si>
+  <si>
+    <t>Tab Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -721,26 +727,26 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -748,212 +754,249 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
       <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
       </c>
       <c r="D7" s="8">
         <v>13718.09</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
       <c r="B8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="13">
         <v>43108</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="8">
         <v>14592.737614</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
       <c r="B10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="13">
         <v>43123</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="12">
         <v>-119.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="10">
         <v>-4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="9">
         <v>43118</v>
@@ -962,68 +1005,85 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="12">
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="12">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="10">
         <v>2.12E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="9">
         <v>43119</v>
@@ -1032,68 +1092,85 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="12">
         <v>24.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" s="10">
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="9">
         <v>43119</v>
@@ -1102,70 +1179,86 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" s="12">
         <v>2496.4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" s="12">
         <v>-44.935199999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D33" s="10">
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34" s="9">
         <v>43119</v>
@@ -1174,70 +1267,86 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
         <v>12</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
         <v>38</v>
       </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D37" s="12">
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D38" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D39" s="11">
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D40" s="9">
         <v>43117</v>
@@ -1246,70 +1355,86 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D43" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D44" s="12">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D45" s="11">
         <v>0.03</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D46" s="9">
         <v>43118</v>
@@ -1318,68 +1443,85 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D49" s="12">
         <v>2000</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D50" s="12">
         <v>5.2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D51" s="10">
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D52" s="9">
         <v>43118</v>
@@ -1388,68 +1530,85 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D55" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D56" s="12">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D57" s="10">
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D58" s="9">
         <v>43119</v>
@@ -1458,68 +1617,85 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D61" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D62" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D63" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="s">
         <v>24</v>
-      </c>
-      <c r="C64" t="s">
-        <v>26</v>
       </c>
       <c r="D64" s="9">
         <v>43120</v>
@@ -1528,133 +1704,167 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
         <v>45</v>
-      </c>
-      <c r="D67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" t="s">
-        <v>47</v>
       </c>
       <c r="D68" s="12">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D73" s="12">
         <v>2500</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D74" s="12">
         <v>-300</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D75" s="11">
         <v>-0.12</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D76" s="9">
         <v>43122</v>
